--- a/Plan/튜토리얼_맵_기획.xlsx
+++ b/Plan/튜토리얼_맵_기획.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COCONUT\Documents\BadGuys_2022\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8E5823-5F6E-4EE2-B4FD-18BBE447FC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860F82E7-A629-482A-9381-96A4557ED634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
   </bookViews>
@@ -519,6 +519,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,36 +559,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086DB6AF-1EE8-4860-8BED-5FE1DAD876C6}">
   <dimension ref="B1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL15" activeCellId="1" sqref="AB12 AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,12 +925,12 @@
         <v>0</v>
       </c>
       <c r="AG2" s="1"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
     </row>
     <row r="3" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -947,12 +947,12 @@
         <v>3</v>
       </c>
       <c r="AG3" s="2"/>
-      <c r="AI3" s="28" t="s">
+      <c r="AI3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
     </row>
     <row r="4" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -969,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="AG4" s="3"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
     </row>
     <row r="5" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -1002,10 +1002,10 @@
         <v>2</v>
       </c>
       <c r="AG5" s="4"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
     </row>
     <row r="6" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -1035,10 +1035,10 @@
         <v>17</v>
       </c>
       <c r="AG6" s="5"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
     </row>
     <row r="7" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -1064,18 +1064,18 @@
         <v>4</v>
       </c>
       <c r="AG7" s="6"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="18"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1097,12 +1097,12 @@
         <v>5</v>
       </c>
       <c r="AG8" s="8"/>
-      <c r="AI8" s="27" t="s">
+      <c r="AI8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
     </row>
     <row r="9" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -1130,17 +1130,17 @@
         <v>6</v>
       </c>
       <c r="AG9" s="9"/>
-      <c r="AI9" s="28" t="s">
+      <c r="AI9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="30" t="s">
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
     </row>
     <row r="10" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
@@ -1166,23 +1166,23 @@
         <v>7</v>
       </c>
       <c r="AG10" s="10"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="31" t="s">
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="33"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="29"/>
     </row>
     <row r="11" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="18"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1205,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="AG11" s="23"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="36"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="32"/>
     </row>
     <row r="12" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
@@ -1240,13 +1240,13 @@
         <v>11</v>
       </c>
       <c r="AG12" s="24"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="36"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="32"/>
     </row>
     <row r="13" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -1271,13 +1271,13 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="1"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="35"/>
     </row>
     <row r="14" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
